--- a/rider/weekly/2017_ 9.xlsx
+++ b/rider/weekly/2017_ 9.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>229</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>258</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.69</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.44</c:v>
+                  <c:v>210.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.78</c:v>
+                  <c:v>210.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.65</c:v>
+                  <c:v>229.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.94</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.89</c:v>
+                  <c:v>117.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.35</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D2">
-        <v>225.69</v>
+        <v>230</v>
       </c>
       <c r="E2">
         <v>107.55</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D3">
-        <v>211.44</v>
+        <v>210.72</v>
       </c>
       <c r="E3">
         <v>107.71</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D4">
-        <v>215.78</v>
+        <v>210.56</v>
       </c>
       <c r="E4">
         <v>107.87</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>228.65</v>
+        <v>229.71</v>
       </c>
       <c r="E5">
         <v>108.03</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D6">
-        <v>239.94</v>
+        <v>239.89</v>
       </c>
       <c r="E6">
         <v>108.2</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>116.89</v>
+        <v>117.84</v>
       </c>
       <c r="E7">
         <v>108.36</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>100.35</v>
+        <v>99.47</v>
       </c>
       <c r="E8">
         <v>108.52</v>
